--- a/data/trans_dic/P25_2-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P25_2-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,12 +527,15 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que padece hipertensión/presión arterial alta</t>
+          <t>Población que padece hipertensión/presión arterial alta (tasa de respuesta: 99,86%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -542,20 +546,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +584,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -618,6 +640,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +657,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>31,78%</t>
+          <t>27,92%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>26,58%</t>
+          <t>17,21%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>36,71%</t>
+          <t>29,88%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>41,24%</t>
+          <t>26,32%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>27,99%</t>
+          <t>40,34%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>44,59%</t>
+          <t>27,16%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>36,81%</t>
+          <t>32,1%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>27,38%</t>
+          <t>25,8%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>41,17%</t>
+          <t>34,39%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>22,44%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>31,02%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>26,04%</t>
         </is>
       </c>
     </row>
@@ -685,47 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>20,52; 43,43</t>
+          <t>11,3; 42,82</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>16,95; 36,73</t>
+          <t>7,12; 31,62</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>24,01; 47,42</t>
+          <t>11,73; 48,48</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>32,39; 50,77</t>
+          <t>8,65; 43,56</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>18,83; 36,78</t>
+          <t>27,39; 54,78</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>32,27; 66,25</t>
+          <t>16,28; 42,2</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>29,31; 44,43</t>
+          <t>19,43; 47,27</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>20,79; 34,7</t>
+          <t>14,43; 40,07</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>32,42; 55,47</t>
+          <t>22,55; 45,15</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>13,12; 32,14</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>19,86; 41,24</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>15,4; 38,06</t>
         </is>
       </c>
     </row>
@@ -742,47 +797,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>16,94%</t>
+          <t>18,73%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>15,32%</t>
+          <t>18,29%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>14,95%</t>
+          <t>17,84%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>18,16%</t>
+          <t>17,54%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>17,02%</t>
+          <t>18,2%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>20,09%</t>
+          <t>16,09%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>17,57%</t>
+          <t>18,54%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>16,17%</t>
+          <t>21,3%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>17,42%</t>
+          <t>18,45%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>17,18%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>18,18%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>19,37%</t>
         </is>
       </c>
     </row>
@@ -795,47 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>12,66; 21,89</t>
+          <t>12,97; 25,48</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>11,48; 20,16</t>
+          <t>12,7; 25,96</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>11,09; 19,02</t>
+          <t>12,53; 24,42</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>14,03; 22,37</t>
+          <t>12,01; 24,88</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>13,08; 21,94</t>
+          <t>13,11; 24,14</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>15,82; 25,76</t>
+          <t>11,44; 22,48</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>14,42; 20,97</t>
+          <t>13,41; 24,92</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>13,39; 19,4</t>
+          <t>15,62; 28,76</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>14,54; 20,92</t>
+          <t>14,74; 23,1</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>13,5; 21,78</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>14,45; 22,93</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>15,44; 24,78</t>
         </is>
       </c>
     </row>
@@ -852,47 +937,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>14,42%</t>
+          <t>14,49%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>11,25%</t>
+          <t>11,38%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>14,66%</t>
+          <t>14,58%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>5,7%</t>
+          <t>15,66%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>4,73%</t>
+          <t>5,95%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>5,72%</t>
+          <t>5,27%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>9,72%</t>
+          <t>5,9%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>7,77%</t>
+          <t>11,7%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>9,97%</t>
+          <t>9,69%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>8,02%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>9,87%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>13,55%</t>
         </is>
       </c>
     </row>
@@ -905,54 +1005,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>10,06; 20,24</t>
+          <t>9,27; 21,61</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>7,47; 16,22</t>
+          <t>6,87; 17,46</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>10,54; 20,41</t>
+          <t>9,42; 21,51</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>3,17; 9,09</t>
+          <t>10,27; 22,49</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>2,79; 7,88</t>
+          <t>3,0; 10,8</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>3,34; 9,06</t>
+          <t>2,79; 9,56</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>7,17; 12,53</t>
+          <t>2,84; 10,06</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>5,56; 10,31</t>
+          <t>6,78; 21,37</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>7,52; 12,86</t>
+          <t>6,65; 13,3</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>5,37; 11,36</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>6,72; 13,35</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>10,18; 18,48</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -962,47 +1077,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>18,69%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>15,73%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>18,33%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>17,93%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>14,85%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>20,32%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>18,29%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>15,27%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>19,34%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1015,60 +1145,1431 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>15,72; 22,12</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>13,01; 19,28</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>15,49; 21,52</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>14,89; 20,83</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>12,18; 17,6</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>16,68; 28,04</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>16,11; 20,58</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>13,46; 17,56</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>16,76; 23,13</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>18,47%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>15,57%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>18,45%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>18,4%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>16,11%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>13,15%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>15,5%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>18,7%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>17,21%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>14,3%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>16,94%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>18,56%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>14,61; 23,01</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>11,6; 19,55</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>14,55; 23,07</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>14,05; 23,58</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>12,57; 20,48</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>10,29; 17,37</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>12,02; 19,7</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>14,62; 23,78</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>14,74; 20,32</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>11,74; 16,99</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>14,44; 19,85</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>15,51; 21,95</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="C1:E1"/>
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="K1:N1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que padece hipertensión/presión arterial alta (tasa de respuesta: 99,86%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Hasta primaria</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>35986</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>17684</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>34103</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>46757</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>56516</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>30906</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>38807</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>55210</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>92502</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>48590</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>72910</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>101967</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>14566; 55182</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>7320; 32504</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>13385; 55335</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>15358; 77380</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>38376; 76754</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>18528; 48016</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>23493; 57143</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>30866; 85731</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>60648; 121465</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>28412; 69603</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>46675; 96938</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>60324; 149034</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>66.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>63.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>71.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>68.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>80432</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>68323</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>71284</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>90630</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>83506</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>61292</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>69288</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>104535</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>163938</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>129615</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>140572</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>195164</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>55704; 109439</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>47450; 96958</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>50058; 97568</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>62063; 128542</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>60153; 110760</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>43568; 85635</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>50124; 93126</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>76660; 141139</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>130950; 205170</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>101855; 164317</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>111716; 177303</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>155541; 249661</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios o más</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>48240</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>32134</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>40150</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>54891</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>25508</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>18158</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>19330</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>46758</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>73748</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>50292</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>59480</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>101649</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>30874; 71946</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>19391; 49317</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>25936; 59235</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>35990; 78803</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>12836; 46256</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>9617; 32938</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>9293; 32954</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>27097; 85372</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>50593; 101250</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>33679; 71252</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>40499; 80492</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>76354; 138564</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>66.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>57.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>72.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>70.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>63.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>53.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>61.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>66.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>129.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>110.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>133.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>136.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>164658</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>118141</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>145537</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>192277</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>165530</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>110356</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>127425</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>206502</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>330188</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>228497</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>272962</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>398780</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>130246; 205089</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>87980; 148287</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>114812; 182041</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>146752; 246348</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>129125; 210383</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>86395; 145803</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>98804; 161968</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>161404; 262562</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>282832; 389943</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>187652; 271528</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>232652; 319812</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>333369; 471635</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
